--- a/biology/Zoologie/Ankylosaurinae/Ankylosaurinae.xlsx
+++ b/biology/Zoologie/Ankylosaurinae/Ankylosaurinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ankylosaurinae (ankylosaurinés en français) forment une sous-famille éteint de dinosaures ornithischiens herbivores de l'infra-ordre des Ankylosauria et de la famille des Ankylosauridae. Ils sont connus en Amérique du Nord, en Chine et en Ouzbékistan[2], où ils ont vécu de la fin du Crétacé inférieur (Albien supérieur), jusqu'à la fin du Crétacé supérieur, soit il y a environ entre 105 et 66 Ma (millions d'années)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ankylosaurinae (ankylosaurinés en français) forment une sous-famille éteint de dinosaures ornithischiens herbivores de l'infra-ordre des Ankylosauria et de la famille des Ankylosauridae. Ils sont connus en Amérique du Nord, en Chine et en Ouzbékistan, où ils ont vécu de la fin du Crétacé inférieur (Albien supérieur), jusqu'à la fin du Crétacé supérieur, soit il y a environ entre 105 et 66 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des ankylosaurinés est définie comme le clade contenant les genres plus proches d'Ankylosaurus que de Shamosaurus[4],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des ankylosaurinés est définie comme le clade contenant les genres plus proches d'Ankylosaurus que de Shamosaurus,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, à la suite de la description d'un nouveau genre d'ankylosauriné, Zuul, Victoria Arbour et David Evans ont réalisé une analyse phylogénétique aboutissant au cladogramme suivant[5], qui inclut la tribu des Ankylosaurini[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, à la suite de la description d'un nouveau genre d'ankylosauriné, Zuul, Victoria Arbour et David Evans ont réalisé une analyse phylogénétique aboutissant au cladogramme suivant, qui inclut la tribu des Ankylosaurini :
 </t>
         </is>
       </c>
